--- a/springboot-poi/src/main/resources/excelTemplates/advanceMng.xlsx
+++ b/springboot-poi/src/main/resources/excelTemplates/advanceMng.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,35 +25,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>车商名称</t>
-  </si>
-  <si>
-    <t>操作银行</t>
-  </si>
-  <si>
-    <t>是否全额垫款</t>
-  </si>
-  <si>
-    <t>业务日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>学生信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文语文文言文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2+3+4+5+6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江杭州</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDEFGHIJK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20岁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、查找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛顿的苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北武汉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表、数、图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21岁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、查找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放子对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放数组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行合并</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行合并</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -88,14 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -106,6 +186,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -121,12 +210,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -135,17 +224,165 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="8"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -161,24 +398,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -186,28 +471,7 @@
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -483,52 +747,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
+  <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>